--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd2a091fe8f62e20/ARA/2019S1/DBM/Assignment1/DBAssignment2019-S1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{9AB86547-6D1E-4C99-A9C1-C6A2A636233C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8566AFF4-86D8-49C2-B139-3A84EA353065}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="6_{14FCC748-63C1-41F8-A97B-9D7252AB6AD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{6BCE1C9D-B8DD-4BD5-B689-05989A880D46}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD730AC6-235C-4820-A77E-31117248BAD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{AD730AC6-235C-4820-A77E-31117248BAD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Antenna" sheetId="4" r:id="rId1"/>
+    <sheet name="Installer" sheetId="2" r:id="rId2"/>
+    <sheet name="Job" sheetId="11" r:id="rId3"/>
+    <sheet name="Meter" sheetId="3" r:id="rId4"/>
+    <sheet name="Network" sheetId="5" r:id="rId5"/>
+    <sheet name="Results" sheetId="8" r:id="rId6"/>
+    <sheet name="Signal Result" sheetId="7" r:id="rId7"/>
+    <sheet name="Signal Type" sheetId="6" r:id="rId8"/>
+    <sheet name="Test" sheetId="9" r:id="rId9"/>
+    <sheet name="Test Equipment" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,18 +40,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
-  <si>
-    <t>Field</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="116">
   <si>
     <t>Data Type</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Constraints</t>
+    <t>workOrder</t>
+  </si>
+  <si>
+    <t>antennaID</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>meterID</t>
+  </si>
+  <si>
+    <t>bluetoothName</t>
+  </si>
+  <si>
+    <t>gpsLong</t>
+  </si>
+  <si>
+    <t>gpsLat</t>
+  </si>
+  <si>
+    <t>gpsAccuracy</t>
+  </si>
+  <si>
+    <t>networkID</t>
+  </si>
+  <si>
+    <t>networkName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the WorkOrder/Job. This is split out from the rest as there may be multiple tests for the same Job/Installation</t>
+  </si>
+  <si>
+    <t>Not Nullable</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for an Employee. This is split out from the test tab;e as there may be multiple tests for the same employee (they may work on multiple jobs/test)</t>
+  </si>
+  <si>
+    <t>All testing staff must have a username that is used to identify them when the log files come through</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the antenna type. This is used to reduce redundancy</t>
+  </si>
+  <si>
+    <t>antennaName</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>The name/type of antenna. e.g blade/whip</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the Meter. This is split out from the rest as there may be multiple tests for the same meter.</t>
+  </si>
+  <si>
+    <t>This is the bluetooth hostname of the meter. Every bluetooth requires a hostname (hence NN). I went for a value of 25 for the hostname to allow for redundancy in case of duplicates (should be unique)</t>
+  </si>
+  <si>
+    <t>DECIMAL(20,17)</t>
+  </si>
+  <si>
+    <t>Longitude of the Meter according to GPS. Set to decimal to allow for precision, with up to 3 places pre-point for degrees, and the rest for precise accuracy of location</t>
+  </si>
+  <si>
+    <t>lattitude of the Meter according to GPS. Set to decimal to allow for precision, with up to 3 places pre-point for degrees, and the rest for precise accuracy of location</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>'kCLLocationAccuracyKilometer'</t>
+  </si>
+  <si>
+    <t>Normally set to kCLLocationAccuracyKilometer</t>
+  </si>
+  <si>
+    <t>serialNumber</t>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+  </si>
+  <si>
+    <t>Manafacturers serial code for the meter. Every single meter must have one, and it must be unique. Require 8 places due to standard device template serial number</t>
+  </si>
+  <si>
+    <t>modemType</t>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+  </si>
+  <si>
+    <t>This is the modem type that was used for this testing.</t>
+  </si>
+  <si>
+    <t>firmwareVersion</t>
+  </si>
+  <si>
+    <t>This is the firmware version of the meter.</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the network. This is split out from the rest as there may be multiple tests for the same network</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>This is the name of the network provider.</t>
+  </si>
+  <si>
+    <t>resultID</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the Test Result.</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the antenna used in the result</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the network used in the result</t>
+  </si>
+  <si>
+    <t>testID</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the parent test</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
+  </si>
+  <si>
+    <t>Indicates whether the result is a pass or a fail</t>
+  </si>
+  <si>
+    <t>simCard</t>
+  </si>
+  <si>
+    <t>CHAR(20)</t>
+  </si>
+  <si>
+    <t>This is the slot for the simacard identifier.</t>
+  </si>
+  <si>
+    <t>modemStatus</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>network status for the result (diagnostic for network connection)</t>
+  </si>
+  <si>
+    <t>rawArray</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>Raw array of data for the Result</t>
+  </si>
+  <si>
+    <t>networkReturn</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>Name of the network provider as returned during the test (Network Diagnostic)</t>
+  </si>
+  <si>
+    <t>timeOut</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>Boolean value to indicate whether the connection timed out to the network.</t>
+  </si>
+  <si>
+    <t>signalResultsID</t>
+  </si>
+  <si>
+    <t>signalID</t>
+  </si>
+  <si>
+    <t>signalStrength</t>
+  </si>
+  <si>
+    <t>DECIMAL(15,12)</t>
+  </si>
+  <si>
+    <t>signalLowerThreshold</t>
+  </si>
+  <si>
+    <t>DECIMAL(5,2)</t>
+  </si>
+  <si>
+    <t>signalHigherThreshold</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the signalResult.</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the signal type used in the test</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the parent test result used in the test</t>
+  </si>
+  <si>
+    <t>Decimal value outlining how strong the connection was to the specific network type</t>
+  </si>
+  <si>
+    <t>The lower threshold of the signal type</t>
+  </si>
+  <si>
+    <t>The higher threshold of the signal type</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the signal. This is used to reduce redundancy.</t>
+  </si>
+  <si>
+    <t>signalName</t>
+  </si>
+  <si>
+    <t>This is the 4 letter abbreviation of the signal type</t>
+  </si>
+  <si>
+    <t>testerID</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>antennaTestType</t>
+  </si>
+  <si>
+    <t>VARCHAR(17)</t>
+  </si>
+  <si>
+    <t>batteryLevel</t>
+  </si>
+  <si>
+    <t>DECIMAL(4,2)</t>
+  </si>
+  <si>
+    <t>bluetoothsignal</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the Test. This is a Unique value</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the Job</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the Meter used in the test</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the employee used in the test</t>
+  </si>
+  <si>
+    <t>This is the foreign Key Relating to the tablet used in the test</t>
+  </si>
+  <si>
+    <t>Date and Time of the Test</t>
+  </si>
+  <si>
+    <t>This data field confirms what antenna test type it is.</t>
+  </si>
+  <si>
+    <t>This field indicates the level of battery the meter has at the time of testing.</t>
+  </si>
+  <si>
+    <t>This indicates the level of bluetooth signal the Meter has to the Tablet at the test time</t>
+  </si>
+  <si>
+    <t>testType</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Type of Test (as per extra spec)</t>
+  </si>
+  <si>
+    <t>appVersion</t>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+  </si>
+  <si>
+    <t>deviceType</t>
+  </si>
+  <si>
+    <t>This is the Unique Identifier for the test tablet. This may be used for multiple tests of different meters</t>
+  </si>
+  <si>
+    <t>This is the version number of the App on the tablet. Char is used to void truncation of values and for accuracy of input</t>
+  </si>
+  <si>
+    <t>This is used to describe the type of tablet used for the test.</t>
   </si>
 </sst>
 </file>
@@ -60,24 +405,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,14 +431,450 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -110,6 +885,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E902EB84-473C-47A0-AF45-19A85C4EA433}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="73">
+  <autoFilter ref="A1:G3" xr:uid="{0CAFE458-CB5E-41A9-876C-EE7333E88566}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{33E259F0-0994-47A7-AF89-8C01E3816066}" name="Name" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{145A5D0D-3965-4E40-871F-BAB7F490D9A2}" name="Data Type" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{3E094563-0105-46A0-B494-97C344BB6007}" name="Not Nullable" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B39F5866-8901-4A39-9F22-78FDA3E0DBBB}" name="PK" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{41D7BB9A-9F17-4D3C-8351-29A7083D4122}" name="FK" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{D5F82BED-AB68-4531-8DF2-5433F2BACA63}" name="Default" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{98C8D286-D2CF-4FEB-927B-604E91146AF3}" name="Comment" dataDxfId="74"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B03B3598-7FAD-4D3B-8EBD-40019A6AA31B}" name="Table10" displayName="Table10" ref="A1:G4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G4" xr:uid="{B4D3B69B-FECF-482E-AC8D-7D02607CC5E2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7606B7C7-7B33-403E-A6E5-DA202FF67E18}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{390A503D-4CE1-40B9-9D5E-CB59993314FF}" name="Data Type" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{54116E78-E3E8-4D7F-BF3D-957750098139}" name="Not Nullable" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7F21CD68-7EA2-4F11-A271-F1D730540FC9}" name="PK" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8A49A183-3396-44E3-9D66-EA8BFCFBFB3B}" name="FK" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0F5EC959-546B-4F05-9BDD-8A74803E95BA}" name="Default" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{71B88348-D2DF-437C-B1F6-6C1FE9087D35}" name="Comment" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{66C773E6-F5DD-41BD-BFD5-41BC3AE58E0A}" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="A1:G3" xr:uid="{5722FE1D-6F77-487C-BC90-EE53BB5A78C1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FDFF5878-8B5D-4742-BB70-92A1AF28BA37}" name="Name" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{9AC498B0-5249-458A-879F-57E0C6E0C958}" name="Data Type" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{CCB842FD-B21F-485D-934D-9969C5FBA0DC}" name="Not Nullable" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{8FDA11C0-00C4-49D6-BAE1-4781E48A567C}" name="PK" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{389CFFFA-BFA5-4E4C-AC9B-E1F0235FF675}" name="FK" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{9FDB6397-12F6-45EC-8CBF-EC98F5C6D0FB}" name="Default" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{A9A1145F-53D2-42E1-91AE-41A513D5E16A}" name="Comment" dataDxfId="81"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E4DB7BC-BF16-4E6A-9057-056373B94E30}" name="Table3" displayName="Table3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="54" dataDxfId="55">
+  <autoFilter ref="A1:G2" xr:uid="{5DE5CD9D-F78B-4BFE-8AFC-7044075EDB2D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0701F233-B2E7-4020-95EE-45D7048DF155}" name="Name" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{2E4A8F89-6EFE-4B21-82F3-FD676F501405}" name="Data Type" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{73B59000-62ED-4A1C-B1F0-8D6E1A2F3607}" name="Not Nullable" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{E31B3F57-478E-453D-ABB1-E13FE2D929EC}" name="PK" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{AE57092F-5A19-449E-B4B7-5BB1A43874F0}" name="FK" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{071D8672-0822-486E-88E4-B5F734741A47}" name="Default" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{FF3528DD-2B1E-4DC2-BADB-C813991A8012}" name="Comment" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96A8D978-5C00-4E4C-8848-8561076E5BE8}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="64">
+  <autoFilter ref="A1:G9" xr:uid="{14E4F528-B018-4EEE-AD25-54677935098D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{332BF98C-5783-4E9D-9879-99CBA9745EAE}" name="Name" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{35D42CE9-F3C2-4A79-84BC-CEC4380B8682}" name="Data Type" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{153203EE-A43D-4757-AC0B-939576A395A4}" name="Not Nullable" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{BFE5A4E8-1D3F-4745-92CC-AC604E96E37F}" name="PK" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{8DDBF097-692B-45FA-A3B1-C2094CCD2F9A}" name="FK" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{93D7F594-0698-45F5-AB86-CE822BE23DC3}" name="Default" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{E1FC6816-8FEB-45A2-9283-0248D1DA1EDA}" name="Comment" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{431F7FC8-AF01-4AE6-85F2-6316D272273E}" name="Table4" displayName="Table4" ref="A1:G3" totalsRowShown="0" headerRowDxfId="45" dataDxfId="46">
+  <autoFilter ref="A1:G3" xr:uid="{333C13C2-0879-439F-B916-0216B0475BF2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4D82FAFF-7431-4134-BD38-B564C8F077E3}" name="Name" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{0CEC33EA-FD84-4BF6-8890-0E7FF041BE2D}" name="Data Type" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{E922DACA-E367-4EFA-9529-E18A235F2400}" name="Not Nullable" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{E574295B-2793-4842-BC7E-4D44623622D1}" name="PK" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{E04C76F3-71E0-40AA-AAC0-9807C1F58819}" name="FK" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{665C83A4-4E39-42B6-AC2B-3F8459F05F04}" name="Default" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{4CC411AA-70B1-43BD-8C2B-D8E7EDA9D0B4}" name="Comment" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3B0D8CB-A4B7-425E-96A1-49BAC60BDE69}" name="Table6" displayName="Table6" ref="A1:G11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="37">
+  <autoFilter ref="A1:G11" xr:uid="{261D8AA5-A082-492E-831D-EA9150B60DEA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B1539051-5434-4996-9204-79D4F3473517}" name="Name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{335585DE-0F0A-47AF-8C2D-1D60C7E084B6}" name="Data Type" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{36B0399B-6136-4B4F-884E-7B445E9E1CD6}" name="Not Nullable" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{9BC04FF8-8EE9-42BE-938E-E97A3294A7A1}" name="PK" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{0CDF2621-8AA4-497B-B68D-3B97610758CC}" name="FK" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{2A1FA0C4-1C70-4F6C-9EDE-2EA8C4AD8BA5}" name="Default" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{0E4972C2-0670-4102-83AC-C6AA80E1E17A}" name="Comment" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D6E1A107-355D-4447-B450-E22C7A39C656}" name="Table7" displayName="Table7" ref="A1:G7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+  <autoFilter ref="A1:G7" xr:uid="{A56EB0B2-CC1F-4B87-AF57-AAF51382F91A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{86596568-5F59-48E6-B5A2-FCE7420D5403}" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{28A28CEA-F67A-4EE2-82CA-3DE3E06CC012}" name="Data Type" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{5370987C-A823-4F94-B44E-0F309DF961EC}" name="Not Nullable" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{87ADD6D2-2488-4184-88D4-D22E69C3D6D3}" name="PK" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{218B8820-7BF1-46B1-820C-14273152A64C}" name="FK" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{294F63FA-88B3-45C0-ABC1-6CD80426014C}" name="Default" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{5BA01755-ED72-4394-8CBB-08877F1C5020}" name="Comment" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84B30CC3-2819-48E8-923F-73CFD3E458CE}" name="Table8" displayName="Table8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
+  <autoFilter ref="A1:G3" xr:uid="{983208D5-C2BA-48D2-8124-AA9F23725593}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EDDAC676-01E0-440F-93A5-F4EC11501C42}" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{4DF22031-F35E-4E06-B44E-CB67FD7DF02C}" name="Data Type" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{DB851A33-8102-4441-92C7-9B869FD52176}" name="Not Nullable" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{AC1A99EE-9484-40D0-AE4C-60B07037D7A7}" name="PK" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{07186570-2394-4A1B-9FAD-FAD127D6D334}" name="FK" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{28346C93-E6F0-401E-9657-E31E5074CC07}" name="Default" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{F3864567-E6D1-40CD-8D39-0A69A23B966C}" name="Comment" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{32574244-099F-480F-9BF8-60D30960C857}" name="Table9" displayName="Table9" ref="A1:G11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+  <autoFilter ref="A1:G11" xr:uid="{67DE6B20-F9AE-478E-ACB6-ED6852DD659A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FC842911-6A84-4D8C-B12C-4FEF80CB7EDB}" name="Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6B817C5B-3FA1-400A-9B92-7F3B672CCD4A}" name="Data Type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{96D5E725-EB1B-4814-90FD-D6579951260C}" name="Not Nullable" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FA418C70-6B68-42A7-82D2-7966BFA71C27}" name="PK" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2E5ADF67-722D-4922-B75A-DB46F592674E}" name="FK" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{09E953A6-F599-4556-8483-DB730F206206}" name="Default" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{AB636EC5-DD1F-4C94-B1FD-967EF3423F06}" name="Comment" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,37 +1343,1464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8530679-DDCB-4475-91CD-66B00E5EBF2F}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A1534A-2E4C-4033-868E-E25A274AC044}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DBE75-7CF9-447C-B386-224D9754064E}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="78.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDF7BB-65E5-4080-87D6-5B2F5DBC4601}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AABCC9C-4E73-4977-8082-E0594EA12F3B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="118.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE60C6D-FFE8-4914-AAFD-448BEA67D962}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="92.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7A0ABF-233F-4C8B-AFAA-53A4F64CF8EF}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FBEEFD-277F-4E42-A7AF-B79D2C344082}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B3D67-E5C4-4A2C-80CC-6E1769E9CD51}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69BC563-9A61-4385-BFF8-659317B8498C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7BB214-6C67-443D-83B3-9886E517140C}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="63.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd2a091fe8f62e20/ARA/2019S1/DBM/Assignment1/DBAssignment2019-S1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="6_{14FCC748-63C1-41F8-A97B-9D7252AB6AD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{6BCE1C9D-B8DD-4BD5-B689-05989A880D46}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="6_{14FCC748-63C1-41F8-A97B-9D7252AB6AD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F7E0B2CE-98D0-4603-8B1B-510DE7C83F18}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{AD730AC6-235C-4820-A77E-31117248BAD0}"/>
+    <workbookView xWindow="727" yWindow="1972" windowWidth="15390" windowHeight="9533" firstSheet="4" activeTab="9" xr2:uid="{AD730AC6-235C-4820-A77E-31117248BAD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Antenna" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="119">
   <si>
     <t>Data Type</t>
   </si>
@@ -237,9 +237,6 @@
     <t>rawArray</t>
   </si>
   <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
     <t>Raw array of data for the Result</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>signalStrength</t>
   </si>
   <si>
-    <t>DECIMAL(15,12)</t>
-  </si>
-  <si>
     <t>signalLowerThreshold</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>bluetoothsignal</t>
   </si>
   <si>
-    <t>VARCHAR(15)</t>
-  </si>
-  <si>
     <t>This is the Unique Identifier for the Test. This is a Unique value</t>
   </si>
   <si>
@@ -388,6 +379,24 @@
   </si>
   <si>
     <t>This is used to describe the type of tablet used for the test.</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>This is the generation of test it is.</t>
+  </si>
+  <si>
+    <t>DECIMAL(16,13)</t>
+  </si>
+  <si>
+    <t>VARCHAR(350)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
   </si>
 </sst>
 </file>
@@ -445,6 +454,30 @@
   </cellStyles>
   <dxfs count="90">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -832,30 +865,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -888,160 +897,160 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E902EB84-473C-47A0-AF45-19A85C4EA433}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E902EB84-473C-47A0-AF45-19A85C4EA433}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:G3" xr:uid="{0CAFE458-CB5E-41A9-876C-EE7333E88566}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{33E259F0-0994-47A7-AF89-8C01E3816066}" name="Name" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{145A5D0D-3965-4E40-871F-BAB7F490D9A2}" name="Data Type" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{3E094563-0105-46A0-B494-97C344BB6007}" name="Not Nullable" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{B39F5866-8901-4A39-9F22-78FDA3E0DBBB}" name="PK" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{41D7BB9A-9F17-4D3C-8351-29A7083D4122}" name="FK" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{D5F82BED-AB68-4531-8DF2-5433F2BACA63}" name="Default" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{98C8D286-D2CF-4FEB-927B-604E91146AF3}" name="Comment" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{33E259F0-0994-47A7-AF89-8C01E3816066}" name="Name" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{145A5D0D-3965-4E40-871F-BAB7F490D9A2}" name="Data Type" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{3E094563-0105-46A0-B494-97C344BB6007}" name="Not Nullable" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{B39F5866-8901-4A39-9F22-78FDA3E0DBBB}" name="PK" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{41D7BB9A-9F17-4D3C-8351-29A7083D4122}" name="FK" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{D5F82BED-AB68-4531-8DF2-5433F2BACA63}" name="Default" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{98C8D286-D2CF-4FEB-927B-604E91146AF3}" name="Comment" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B03B3598-7FAD-4D3B-8EBD-40019A6AA31B}" name="Table10" displayName="Table10" ref="A1:G4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B03B3598-7FAD-4D3B-8EBD-40019A6AA31B}" name="Table10" displayName="Table10" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G4" xr:uid="{B4D3B69B-FECF-482E-AC8D-7D02607CC5E2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7606B7C7-7B33-403E-A6E5-DA202FF67E18}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{390A503D-4CE1-40B9-9D5E-CB59993314FF}" name="Data Type" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{54116E78-E3E8-4D7F-BF3D-957750098139}" name="Not Nullable" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7F21CD68-7EA2-4F11-A271-F1D730540FC9}" name="PK" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8A49A183-3396-44E3-9D66-EA8BFCFBFB3B}" name="FK" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0F5EC959-546B-4F05-9BDD-8A74803E95BA}" name="Default" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{71B88348-D2DF-437C-B1F6-6C1FE9087D35}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7606B7C7-7B33-403E-A6E5-DA202FF67E18}" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{390A503D-4CE1-40B9-9D5E-CB59993314FF}" name="Data Type" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{54116E78-E3E8-4D7F-BF3D-957750098139}" name="Not Nullable" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7F21CD68-7EA2-4F11-A271-F1D730540FC9}" name="PK" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8A49A183-3396-44E3-9D66-EA8BFCFBFB3B}" name="FK" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{0F5EC959-546B-4F05-9BDD-8A74803E95BA}" name="Default" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{71B88348-D2DF-437C-B1F6-6C1FE9087D35}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{66C773E6-F5DD-41BD-BFD5-41BC3AE58E0A}" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{66C773E6-F5DD-41BD-BFD5-41BC3AE58E0A}" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:G3" xr:uid="{5722FE1D-6F77-487C-BC90-EE53BB5A78C1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FDFF5878-8B5D-4742-BB70-92A1AF28BA37}" name="Name" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{9AC498B0-5249-458A-879F-57E0C6E0C958}" name="Data Type" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{CCB842FD-B21F-485D-934D-9969C5FBA0DC}" name="Not Nullable" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{8FDA11C0-00C4-49D6-BAE1-4781E48A567C}" name="PK" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{389CFFFA-BFA5-4E4C-AC9B-E1F0235FF675}" name="FK" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{9FDB6397-12F6-45EC-8CBF-EC98F5C6D0FB}" name="Default" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{A9A1145F-53D2-42E1-91AE-41A513D5E16A}" name="Comment" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{FDFF5878-8B5D-4742-BB70-92A1AF28BA37}" name="Name" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{9AC498B0-5249-458A-879F-57E0C6E0C958}" name="Data Type" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{CCB842FD-B21F-485D-934D-9969C5FBA0DC}" name="Not Nullable" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{8FDA11C0-00C4-49D6-BAE1-4781E48A567C}" name="PK" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{389CFFFA-BFA5-4E4C-AC9B-E1F0235FF675}" name="FK" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{9FDB6397-12F6-45EC-8CBF-EC98F5C6D0FB}" name="Default" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{A9A1145F-53D2-42E1-91AE-41A513D5E16A}" name="Comment" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E4DB7BC-BF16-4E6A-9057-056373B94E30}" name="Table3" displayName="Table3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="54" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E4DB7BC-BF16-4E6A-9057-056373B94E30}" name="Table3" displayName="Table3" ref="A1:G2" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:G2" xr:uid="{5DE5CD9D-F78B-4BFE-8AFC-7044075EDB2D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0701F233-B2E7-4020-95EE-45D7048DF155}" name="Name" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{2E4A8F89-6EFE-4B21-82F3-FD676F501405}" name="Data Type" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{73B59000-62ED-4A1C-B1F0-8D6E1A2F3607}" name="Not Nullable" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{E31B3F57-478E-453D-ABB1-E13FE2D929EC}" name="PK" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{AE57092F-5A19-449E-B4B7-5BB1A43874F0}" name="FK" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{071D8672-0822-486E-88E4-B5F734741A47}" name="Default" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{FF3528DD-2B1E-4DC2-BADB-C813991A8012}" name="Comment" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{0701F233-B2E7-4020-95EE-45D7048DF155}" name="Name" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{2E4A8F89-6EFE-4B21-82F3-FD676F501405}" name="Data Type" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{73B59000-62ED-4A1C-B1F0-8D6E1A2F3607}" name="Not Nullable" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{E31B3F57-478E-453D-ABB1-E13FE2D929EC}" name="PK" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{AE57092F-5A19-449E-B4B7-5BB1A43874F0}" name="FK" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{071D8672-0822-486E-88E4-B5F734741A47}" name="Default" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{FF3528DD-2B1E-4DC2-BADB-C813991A8012}" name="Comment" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96A8D978-5C00-4E4C-8848-8561076E5BE8}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96A8D978-5C00-4E4C-8848-8561076E5BE8}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:G9" xr:uid="{14E4F528-B018-4EEE-AD25-54677935098D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{332BF98C-5783-4E9D-9879-99CBA9745EAE}" name="Name" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{35D42CE9-F3C2-4A79-84BC-CEC4380B8682}" name="Data Type" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{153203EE-A43D-4757-AC0B-939576A395A4}" name="Not Nullable" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{BFE5A4E8-1D3F-4745-92CC-AC604E96E37F}" name="PK" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{8DDBF097-692B-45FA-A3B1-C2094CCD2F9A}" name="FK" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{93D7F594-0698-45F5-AB86-CE822BE23DC3}" name="Default" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{E1FC6816-8FEB-45A2-9283-0248D1DA1EDA}" name="Comment" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{332BF98C-5783-4E9D-9879-99CBA9745EAE}" name="Name" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{35D42CE9-F3C2-4A79-84BC-CEC4380B8682}" name="Data Type" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{153203EE-A43D-4757-AC0B-939576A395A4}" name="Not Nullable" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{BFE5A4E8-1D3F-4745-92CC-AC604E96E37F}" name="PK" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{8DDBF097-692B-45FA-A3B1-C2094CCD2F9A}" name="FK" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{93D7F594-0698-45F5-AB86-CE822BE23DC3}" name="Default" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{E1FC6816-8FEB-45A2-9283-0248D1DA1EDA}" name="Comment" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{431F7FC8-AF01-4AE6-85F2-6316D272273E}" name="Table4" displayName="Table4" ref="A1:G3" totalsRowShown="0" headerRowDxfId="45" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{431F7FC8-AF01-4AE6-85F2-6316D272273E}" name="Table4" displayName="Table4" ref="A1:G3" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:G3" xr:uid="{333C13C2-0879-439F-B916-0216B0475BF2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4D82FAFF-7431-4134-BD38-B564C8F077E3}" name="Name" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{0CEC33EA-FD84-4BF6-8890-0E7FF041BE2D}" name="Data Type" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E922DACA-E367-4EFA-9529-E18A235F2400}" name="Not Nullable" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{E574295B-2793-4842-BC7E-4D44623622D1}" name="PK" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{E04C76F3-71E0-40AA-AAC0-9807C1F58819}" name="FK" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{665C83A4-4E39-42B6-AC2B-3F8459F05F04}" name="Default" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{4CC411AA-70B1-43BD-8C2B-D8E7EDA9D0B4}" name="Comment" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{4D82FAFF-7431-4134-BD38-B564C8F077E3}" name="Name" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{0CEC33EA-FD84-4BF6-8890-0E7FF041BE2D}" name="Data Type" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{E922DACA-E367-4EFA-9529-E18A235F2400}" name="Not Nullable" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{E574295B-2793-4842-BC7E-4D44623622D1}" name="PK" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{E04C76F3-71E0-40AA-AAC0-9807C1F58819}" name="FK" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{665C83A4-4E39-42B6-AC2B-3F8459F05F04}" name="Default" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{4CC411AA-70B1-43BD-8C2B-D8E7EDA9D0B4}" name="Comment" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3B0D8CB-A4B7-425E-96A1-49BAC60BDE69}" name="Table6" displayName="Table6" ref="A1:G11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3B0D8CB-A4B7-425E-96A1-49BAC60BDE69}" name="Table6" displayName="Table6" ref="A1:G11" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:G11" xr:uid="{261D8AA5-A082-492E-831D-EA9150B60DEA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B1539051-5434-4996-9204-79D4F3473517}" name="Name" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{335585DE-0F0A-47AF-8C2D-1D60C7E084B6}" name="Data Type" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{36B0399B-6136-4B4F-884E-7B445E9E1CD6}" name="Not Nullable" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{9BC04FF8-8EE9-42BE-938E-E97A3294A7A1}" name="PK" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{0CDF2621-8AA4-497B-B68D-3B97610758CC}" name="FK" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{2A1FA0C4-1C70-4F6C-9EDE-2EA8C4AD8BA5}" name="Default" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{0E4972C2-0670-4102-83AC-C6AA80E1E17A}" name="Comment" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{B1539051-5434-4996-9204-79D4F3473517}" name="Name" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{335585DE-0F0A-47AF-8C2D-1D60C7E084B6}" name="Data Type" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{36B0399B-6136-4B4F-884E-7B445E9E1CD6}" name="Not Nullable" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{9BC04FF8-8EE9-42BE-938E-E97A3294A7A1}" name="PK" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{0CDF2621-8AA4-497B-B68D-3B97610758CC}" name="FK" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{2A1FA0C4-1C70-4F6C-9EDE-2EA8C4AD8BA5}" name="Default" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{0E4972C2-0670-4102-83AC-C6AA80E1E17A}" name="Comment" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D6E1A107-355D-4447-B450-E22C7A39C656}" name="Table7" displayName="Table7" ref="A1:G7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D6E1A107-355D-4447-B450-E22C7A39C656}" name="Table7" displayName="Table7" ref="A1:G7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:G7" xr:uid="{A56EB0B2-CC1F-4B87-AF57-AAF51382F91A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{86596568-5F59-48E6-B5A2-FCE7420D5403}" name="Name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{28A28CEA-F67A-4EE2-82CA-3DE3E06CC012}" name="Data Type" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{5370987C-A823-4F94-B44E-0F309DF961EC}" name="Not Nullable" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{87ADD6D2-2488-4184-88D4-D22E69C3D6D3}" name="PK" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{218B8820-7BF1-46B1-820C-14273152A64C}" name="FK" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{294F63FA-88B3-45C0-ABC1-6CD80426014C}" name="Default" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{5BA01755-ED72-4394-8CBB-08877F1C5020}" name="Comment" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{86596568-5F59-48E6-B5A2-FCE7420D5403}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{28A28CEA-F67A-4EE2-82CA-3DE3E06CC012}" name="Data Type" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5370987C-A823-4F94-B44E-0F309DF961EC}" name="Not Nullable" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{87ADD6D2-2488-4184-88D4-D22E69C3D6D3}" name="PK" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{218B8820-7BF1-46B1-820C-14273152A64C}" name="FK" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{294F63FA-88B3-45C0-ABC1-6CD80426014C}" name="Default" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5BA01755-ED72-4394-8CBB-08877F1C5020}" name="Comment" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84B30CC3-2819-48E8-923F-73CFD3E458CE}" name="Table8" displayName="Table8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
-  <autoFilter ref="A1:G3" xr:uid="{983208D5-C2BA-48D2-8124-AA9F23725593}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84B30CC3-2819-48E8-923F-73CFD3E458CE}" name="Table8" displayName="Table8" ref="A1:G5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:G5" xr:uid="{983208D5-C2BA-48D2-8124-AA9F23725593}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EDDAC676-01E0-440F-93A5-F4EC11501C42}" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{4DF22031-F35E-4E06-B44E-CB67FD7DF02C}" name="Data Type" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{DB851A33-8102-4441-92C7-9B869FD52176}" name="Not Nullable" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{AC1A99EE-9484-40D0-AE4C-60B07037D7A7}" name="PK" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{07186570-2394-4A1B-9FAD-FAD127D6D334}" name="FK" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{28346C93-E6F0-401E-9657-E31E5074CC07}" name="Default" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{F3864567-E6D1-40CD-8D39-0A69A23B966C}" name="Comment" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{EDDAC676-01E0-440F-93A5-F4EC11501C42}" name="Name" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4DF22031-F35E-4E06-B44E-CB67FD7DF02C}" name="Data Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{DB851A33-8102-4441-92C7-9B869FD52176}" name="Not Nullable" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{AC1A99EE-9484-40D0-AE4C-60B07037D7A7}" name="PK" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{07186570-2394-4A1B-9FAD-FAD127D6D334}" name="FK" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{28346C93-E6F0-401E-9657-E31E5074CC07}" name="Default" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{F3864567-E6D1-40CD-8D39-0A69A23B966C}" name="Comment" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{32574244-099F-480F-9BF8-60D30960C857}" name="Table9" displayName="Table9" ref="A1:G11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
-  <autoFilter ref="A1:G11" xr:uid="{67DE6B20-F9AE-478E-ACB6-ED6852DD659A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{32574244-099F-480F-9BF8-60D30960C857}" name="Table9" displayName="Table9" ref="A1:G12" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:G12" xr:uid="{67DE6B20-F9AE-478E-ACB6-ED6852DD659A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FC842911-6A84-4D8C-B12C-4FEF80CB7EDB}" name="Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{6B817C5B-3FA1-400A-9B92-7F3B672CCD4A}" name="Data Type" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{96D5E725-EB1B-4814-90FD-D6579951260C}" name="Not Nullable" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FA418C70-6B68-42A7-82D2-7966BFA71C27}" name="PK" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2E5ADF67-722D-4922-B75A-DB46F592674E}" name="FK" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{09E953A6-F599-4556-8483-DB730F206206}" name="Default" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{AB636EC5-DD1F-4C94-B1FD-967EF3423F06}" name="Comment" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{FC842911-6A84-4D8C-B12C-4FEF80CB7EDB}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6B817C5B-3FA1-400A-9B92-7F3B672CCD4A}" name="Data Type" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{96D5E725-EB1B-4814-90FD-D6579951260C}" name="Not Nullable" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{FA418C70-6B68-42A7-82D2-7966BFA71C27}" name="PK" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{2E5ADF67-722D-4922-B75A-DB46F592674E}" name="FK" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{09E953A6-F599-4556-8483-DB730F206206}" name="Default" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{AB636EC5-DD1F-4C94-B1FD-967EF3423F06}" name="Comment" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1350,18 +1359,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,22 +1447,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DBE75-7CF9-447C-B386-224D9754064E}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" customWidth="1"/>
+    <col min="5" max="5" width="5.265625" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="78.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1476,9 +1485,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -1494,15 +1503,15 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -1515,15 +1524,15 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -1536,7 +1545,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1552,21 +1561,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1647,16 +1656,16 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="118.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="118.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1712,22 +1721,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE60C6D-FFE8-4914-AAFD-448BEA67D962}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1328125" customWidth="1"/>
+    <col min="7" max="7" width="92.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1792,7 +1801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1934,21 +1943,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +2001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2025,22 +2034,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FBEEFD-277F-4E42-A7AF-B79D2C344082}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -2210,12 +2219,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -2228,15 +2237,15 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -2249,15 +2258,15 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -2270,7 +2279,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2283,24 +2292,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146B3D67-E5C4-4A2C-80CC-6E1769E9CD51}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2323,9 +2332,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -2341,12 +2350,12 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2362,10 +2371,10 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -2383,15 +2392,15 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -2404,49 +2413,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2459,22 +2426,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69BC563-9A61-4385-BFF8-659317B8498C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="78.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2497,9 +2464,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -2515,12 +2482,12 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>56</v>
@@ -2536,7 +2503,49 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2549,22 +2558,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7BB214-6C67-443D-83B3-9886E517140C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="63.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -2605,10 +2614,10 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2626,10 +2635,10 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2647,10 +2656,10 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2668,12 +2677,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -2689,15 +2698,15 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -2710,12 +2719,12 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>47</v>
@@ -2724,22 +2733,22 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -2752,15 +2761,15 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -2773,15 +2782,15 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -2794,7 +2803,28 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
